--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 6 1 variable 3.xlsx_with_dialog_acts.xlsx
@@ -543,12 +543,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1299,12 +1299,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1335,12 +1335,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1983,12 +1983,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3175,12 +3175,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3247,12 +3247,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3283,12 +3283,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3939,12 +3939,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4083,12 +4083,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4119,12 +4119,12 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4335,12 +4335,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4767,12 +4767,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4839,12 +4839,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4947,12 +4947,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
